--- a/Medicine_inventory.xlsx
+++ b/Medicine_inventory.xlsx
@@ -1,79 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20400" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="60" windowWidth="20400" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="mainSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="גיליון2" sheetId="2" r:id="rId2"/>
-    <sheet name="גיליון3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mainSheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="גיליון2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="גיליון3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t>Exipration date</t>
-  </si>
-  <si>
-    <t>Quntity</t>
-  </si>
-  <si>
-    <t>min quantity</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>11/12/2022</t>
-  </si>
-  <si>
-    <t>aba</t>
-  </si>
-  <si>
-    <t>23/11/2021</t>
-  </si>
-  <si>
-    <t>cccc</t>
-  </si>
-  <si>
-    <t>dddd</t>
-  </si>
-  <si>
-    <t>eeee</t>
-  </si>
-  <si>
-    <t>ffff</t>
-  </si>
-  <si>
-    <t>11/11/2021</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Arial"/>
+      <charset val="177"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -92,19 +49,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -394,114 +413,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col width="9.875" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Names</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Exipration date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Quntity</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>min quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>11/02/2334</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1234</v>
+      </c>
+      <c r="D2" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>aba</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>23/11/2021</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cccc</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>11/12/2022</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="D4" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>dddd</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>11/12/2022</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>65</v>
-      </c>
-      <c r="D3">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eeee</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>11/12/2022</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ffff</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11/11/2021</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23/04/1987</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>777</v>
+      </c>
+      <c r="D8" t="n">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -510,24 +578,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Medicine_inventory.xlsx
+++ b/Medicine_inventory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="60" windowWidth="20400" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="75" windowWidth="11760" windowHeight="7500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mainSheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,13 +18,35 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <charset val="177"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="16"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="16"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -45,15 +67,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -418,158 +444,1166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="9.875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="53.875" customWidth="1" min="1" max="1"/>
+    <col width="14.875" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Names</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Exipration date</t>
+          <t>Expiration date</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Quntity</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>aaaa</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>11/02/2334</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1234</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>aba</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>23/11/2021</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>cccc</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>dddd</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>eeee</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ffff</t>
+          <t>minimum quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>piping rock sambucus 4250mg</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>nature's truth sambucus 4250mg</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>None pferdebalsam chilis gel 500ml</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20.25" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>None pferdebalsam aktiv gel 500ml</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20.25" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>wellgenix Balanced Essentials plus 946ml</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>06/10/2022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20.25" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>piping rock Plant Sterols 1080 mg\cap 240caps</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11/11/2021</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
+          <t>01/11/2023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20.25" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>piping rock Plant Sterols 1200 mg\cap 120caps</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23/04/1987</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>777</v>
-      </c>
-      <c r="D8" t="n">
-        <v>222</v>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20.25" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>piping rock alpha lipoic acid 600 mg 90cap</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>01/05/2022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20.25" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>piping rock magnesium oxide 227gr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>01/05/2023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20.25" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>piping rock magnesium citrate 227gr</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20.25" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>supherb magnesium citrate250mg 60cap</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20.25" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>lindberg mega magnesium 400mg 90cap</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20.25" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>lindberg mega magnesium 420mg 180cap</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20.25" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>piping rock magnesium 400 mg 120caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20.25" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>piping rock magnesium glycinate 665mg 120caps</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20.25" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>piping rock magnesium oxide 500mg 90caps</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>01/12/2023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20.25" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>piping rock Triple magnesium complex 420 mg 200caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20.25" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>shopko calcium 1200 mg 100cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20.25" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>lindberg papaya plus 240caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20.25" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>piping rock Bacopa 1000mg 90caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20.25" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>piping rock Milk Thistle drops 59ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20.25" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>piping rock milk Thistle 3000mg 200caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20.25" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>puritan's pride red yeast rice 600mg 60caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20.25" customHeight="1">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>piping rock moringa oleifera 3000mg 120caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20.25" customHeight="1">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>piping rock ultra tart cherry 3500mg 200caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20.25" customHeight="1">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>puritan's pride grapeseed 100mg 50caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20.25" customHeight="1">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>puritan's pride lycopene 20mg 60caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20.25" customHeight="1">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>piping rock lycopene 20mg 120softgel</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20.25" customHeight="1">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>piping rock GHR 100caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20.25" customHeight="1">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>piping rock cranberry concentrate 30k 90caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20.25" customHeight="1">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>piping rock cranberry concentrate 30k 150caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20.25" customHeight="1">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>lindberg chelated iron 28mg 90</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20.25" customHeight="1">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>piping rock gentle iron 28mg 300caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20.25" customHeight="1">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>lindberg resveratol 100mg 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20.25" customHeight="1">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>natures bounty black cohosh 40mg 90</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20.25" customHeight="1">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>piping rock melatonin 10mg 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20.25" customHeight="1">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>piping rock liquid melatonin 10mg 59ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20.25" customHeight="1">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>natures truth liquid melatonin 10mg drops</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20.25" customHeight="1">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>piping rock potassium magnesium aspartate 180caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20.25" customHeight="1">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>piping rock buchers broom 625 mg 120caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20.25" customHeight="1">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>piping rock soy 100caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20.25" customHeight="1">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>piping rock vitamin c 500 mg 100cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20.25" customHeight="1">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>piping rock vitamin c 1000 mg 250cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20.25" customHeight="1">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>herbal hills moringa oleifera  120caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20.25" customHeight="1">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>piping rock ashwagandha 1500 mg 120caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20.25" customHeight="1">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>piping rock ashwagandha 3000mg 120caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20.25" customHeight="1">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>premium health c-1000 50caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20.25" customHeight="1">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>piping rock probiotic 20 mg 90caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20.25" customHeight="1">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>piping rock DGL 120caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20.25" customHeight="1">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>neta normakos 100 mg drops</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20.25" customHeight="1">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>piping rock boswellia complex 800 mg 100caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20.25" customHeight="1">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>piping rock boswellia complex 1200 mg 120caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20.25" customHeight="1">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>piping rock bromelain 850 mg 120caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20.25" customHeight="1">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>piping rock primrose oil 1000mg 100caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20.25" customHeight="1">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>hylands rhus tox 30x 250tabs</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20.25" customHeight="1">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>puritan's pride prostene 60caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20.25" customHeight="1">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>lindberg vitamin d3 5000 125mc 120caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20.25" customHeight="1">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>supherb vitamin d 400 drops</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20.25" customHeight="1">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>supherb vitamin d 400 120caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="20.25" customHeight="1">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>piping rock vitamin d3 5000 125mc 100caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="20.25" customHeight="1">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>piping rock vitamin d3 5000 125mc high potency 250cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20.25" customHeight="1">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>piping rock vitamin d3 5000 125mc 250cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="20.25" customHeight="1">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>puritan's pride glucosamine chondroitin msm 60cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="20.25" customHeight="1">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>lindberg phosphatidyl serine 100mg 120caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20.25" customHeight="1">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>piping rock neurogolg 100mg 120caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="20.25" customHeight="1">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>piping rock pqq 20mg 60caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20.25" customHeight="1">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>horbaach korean ginseng 59mg drops</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="20.25" customHeight="1">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>piping rock licorice root liquid extract drops</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="20.25" customHeight="1">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>piping rock ginger root liquid extract drops</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="20.25" customHeight="1">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>piping rock saffron extract 60caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="20.25" customHeight="1">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>puritan's pride ginko biloba 120 mg 100caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="20.25" customHeight="1">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>hylands calms forth 100tabs</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="20.25" customHeight="1">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>piping rock calms caps 180caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="20.25" customHeight="1">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>natures way choline 500mg 100taps</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="20.25" customHeight="1">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>shirat haasavim achinizea 50ml drops</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="20.25" customHeight="1">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>piping rock energy booster 90cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="20.25" customHeight="1">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>herbal hills triphala 60cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="20.25" customHeight="1">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>lindberg saw palmetto 900ml 100caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="20.25" customHeight="1">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>piping rock chlorophyll liquid  473ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="20.25" customHeight="1">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>piping rock fenugreek 1220mg 100cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="20.25" customHeight="1">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>lindberg fish oil 1360mg 180quick</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="20.25" customHeight="1">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>piping rock e400iu 268mg 100softgel</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="20.25" customHeight="1">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>natures way sarsaparilla 100cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="20.25" customHeight="1">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>puritan's pride mushroom complex 60cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="20.25" customHeight="1">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>piping rock 6 mushroom 60cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="20.25" customHeight="1">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>natures truth b-12 energy gummies 48cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="20.25" customHeight="1">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>piping rock b-12 2500 mcg + filic acid 120tab</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" ht="20.25" customHeight="1">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>piping rock b-12 methylcobalamin 500 mcg 60tab</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" ht="20.25" customHeight="1">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>piping rock b complex + b12  59ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="20.25" customHeight="1">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>piping rock b12 10000 mcg 59ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="20.25" customHeight="1">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>piping rock b complex + b12  180tab</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" ht="20.25" customHeight="1">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>piping rock b complex + c 100tabs</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" ht="20.25" customHeight="1">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>hylands nerve tonic  500tab</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" ht="20.25" customHeight="1">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>piping rock mega multi for women 90caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" ht="20.25" customHeight="1">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>piping rock retinol cream 113gr</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" ht="20.25" customHeight="1">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>piping rock vitamin e,a , d cream 113gr</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="20.25" customHeight="1">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>piping rock cocunut cream 113gr</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="20.25" customHeight="1">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>piping rock vitamin e cream 113gr</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="20.25" customHeight="1">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>piping rock papaya supreme 180tab</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" ht="20.25" customHeight="1">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>piping rock max biotin 10000mcg 90tab</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" ht="20.25" customHeight="1">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>piping rock urinary track 60tab</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" ht="20.25" customHeight="1">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>miracle of  aloe miracle foot repair cream 113gr</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" ht="20.25" customHeight="1">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>natures truth immune complex 60tab</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="20.25" customHeight="1">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>piping rock oil of oregano 3000 mg 150tabs</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" ht="20.25" customHeight="1">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>piping rock oil of oregano drops 59ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" ht="20.25" customHeight="1">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>piping rock gaba 750 mg 100caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" ht="20.25" customHeight="1">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>puritan's pride st. johns worth 300 mg 100caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" ht="20.25" customHeight="1">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>piping rock lutein 40 mg 90caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="110" ht="20.25" customHeight="1">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>hylands leg cramp 100tabs</t>
+        </is>
+      </c>
+    </row>
+    <row r="111" ht="20.25" customHeight="1">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>piping rock folic acid 800 mg 250tabs</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" ht="20.25" customHeight="1">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>piping rock probiotic acidophilus 1.5 mg 240caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="113" ht="20.25" customHeight="1">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>piping rock stress support gummies 48tabs</t>
+        </is>
+      </c>
+    </row>
+    <row r="114" ht="20.25" customHeight="1">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>piping rock iron gummies 60tabs</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" ht="20.25" customHeight="1">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>puritan's pride aloe vera 470mg 100cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" ht="20.25" customHeight="1">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>piping rock vitex chaste tree 820mg 100cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" ht="20.25" customHeight="1">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>supherb cranberry and vitamin c 60cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" ht="20.25" customHeight="1">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>piping rock testosterone max 90cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" ht="20.25" customHeight="1">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>piping rock mega t 1000 100cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" ht="20.25" customHeight="1">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>piping rock dhea 25 mg 180mg</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" ht="20.25" customHeight="1">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>tinc affron 30mg 30caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="122" ht="20.25" customHeight="1">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>piping rock turmeric 800mg 180cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" ht="20.25" customHeight="1">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>supherb vitaminc 1000 90cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" ht="20.25" customHeight="1">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>supherb omega3 kosher 90cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" ht="20.25" customHeight="1">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>puritan's pride oat bran 850mg 250tabs</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" ht="20.25" customHeight="1">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>maxi health maxi health supreme  360tab</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" ht="20.25" customHeight="1">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>source naturals beta sitosterol 113 mg 90tab</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="20.25" customHeight="1">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>shopko one daily 65caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" ht="20.25" customHeight="1">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>puritan's pride c-500 100caps</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" ht="20.25" customHeight="1">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>piping rock collagen pedrides 198gr</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Medicine_inventory.xlsx
+++ b/Medicine_inventory.xlsx
@@ -444,10 +444,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -489,15 +489,11 @@
           <t>01/10/2023</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
@@ -511,15 +507,11 @@
           <t>01/09/2023</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="20.25" customHeight="1">
@@ -533,15 +525,11 @@
           <t>01/01/2016</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="20.25" customHeight="1">
@@ -555,15 +543,11 @@
           <t>01/01/2018</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6" ht="20.25" customHeight="1">
@@ -577,15 +561,11 @@
           <t>06/10/2022</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="20.25" customHeight="1">
@@ -599,15 +579,11 @@
           <t>01/11/2023</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8" ht="20.25" customHeight="1">
@@ -621,15 +597,11 @@
           <t>01/03/2024</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9" ht="20.25" customHeight="1">
@@ -643,15 +615,11 @@
           <t>01/05/2022</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10" ht="20.25" customHeight="1">
@@ -665,15 +633,11 @@
           <t>01/05/2023</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="20.25" customHeight="1">
@@ -687,15 +651,11 @@
           <t>01/12/2024</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12" ht="20.25" customHeight="1">
@@ -709,15 +669,11 @@
           <t>01/02/2024</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13" ht="20.25" customHeight="1">
@@ -731,15 +687,11 @@
           <t>01/01/2024</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14" ht="20.25" customHeight="1">
@@ -750,18 +702,14 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>01/03/2021</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>12/03/2021</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="20.25" customHeight="1">
@@ -770,6 +718,17 @@
           <t>piping rock magnesium 400 mg 120caps</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>01/12/2023</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" ht="20.25" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -782,15 +741,11 @@
           <t>01/05/2024</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17" ht="20.25" customHeight="1">
@@ -804,15 +759,11 @@
           <t>01/12/2023</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18" ht="20.25" customHeight="1">
@@ -821,6 +772,17 @@
           <t>piping rock Triple magnesium complex 420 mg 200caps</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>06/01/1900</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" ht="20.25" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -828,6 +790,17 @@
           <t>shopko calcium 1200 mg 100cap</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>01/05/2021</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" ht="20.25" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -835,6 +808,17 @@
           <t>lindberg papaya plus 240caps</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>01/11/2023</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" ht="20.25" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
@@ -842,6 +826,17 @@
           <t>piping rock Bacopa 1000mg 90caps</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>15</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" ht="20.25" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -849,6 +844,17 @@
           <t>piping rock Milk Thistle drops 59ml</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" ht="20.25" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -856,6 +862,17 @@
           <t>piping rock milk Thistle 3000mg 200caps</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" ht="20.25" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -863,6 +880,17 @@
           <t>puritan's pride red yeast rice 600mg 60caps</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" ht="20.25" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -870,6 +898,17 @@
           <t>piping rock moringa oleifera 3000mg 120caps</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01/08/2023</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" ht="20.25" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -877,6 +916,17 @@
           <t>piping rock ultra tart cherry 3500mg 200caps</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" ht="20.25" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -884,6 +934,17 @@
           <t>puritan's pride grapeseed 100mg 50caps</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>01/06/2019</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" ht="20.25" customHeight="1">
       <c r="A28" s="2" t="inlineStr">
@@ -891,6 +952,17 @@
           <t>puritan's pride lycopene 20mg 60caps</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" ht="20.25" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
@@ -898,6 +970,17 @@
           <t>piping rock lycopene 20mg 120softgel</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" ht="20.25" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -905,6 +988,17 @@
           <t>piping rock GHR 100caps</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" ht="20.25" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -912,6 +1006,17 @@
           <t>piping rock cranberry concentrate 30k 90caps</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" ht="20.25" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -919,6 +1024,17 @@
           <t>piping rock cranberry concentrate 30k 150caps</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" ht="20.25" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -926,6 +1042,17 @@
           <t>lindberg chelated iron 28mg 90</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>6</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" ht="20.25" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
@@ -933,6 +1060,17 @@
           <t>piping rock gentle iron 28mg 300caps</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" ht="20.25" customHeight="1">
       <c r="A35" s="2" t="inlineStr">
@@ -940,6 +1078,17 @@
           <t>lindberg resveratol 100mg 120</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" ht="20.25" customHeight="1">
       <c r="A36" s="2" t="inlineStr">
@@ -947,6 +1096,17 @@
           <t>natures bounty black cohosh 40mg 90</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>01/03/2018</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" ht="20.25" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
@@ -954,6 +1114,17 @@
           <t>piping rock melatonin 10mg 120</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" ht="20.25" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
@@ -961,6 +1132,17 @@
           <t>piping rock liquid melatonin 10mg 59ml</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" ht="20.25" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
@@ -968,6 +1150,17 @@
           <t>natures truth liquid melatonin 10mg drops</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" ht="20.25" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
@@ -975,6 +1168,17 @@
           <t>piping rock potassium magnesium aspartate 180caps</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" ht="20.25" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
@@ -982,6 +1186,17 @@
           <t>piping rock buchers broom 625 mg 120caps</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" ht="20.25" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
@@ -989,6 +1204,17 @@
           <t>piping rock soy 100caps</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" ht="20.25" customHeight="1">
       <c r="A43" s="2" t="inlineStr">
@@ -996,6 +1222,17 @@
           <t>piping rock vitamin c 500 mg 100cap</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" ht="20.25" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
@@ -1003,6 +1240,17 @@
           <t>piping rock vitamin c 1000 mg 250cap</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>01/06/2023</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" ht="20.25" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
@@ -1010,6 +1258,17 @@
           <t>herbal hills moringa oleifera  120caps</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>01/06/2021</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" ht="20.25" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
@@ -1017,6 +1276,17 @@
           <t>piping rock ashwagandha 1500 mg 120caps</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>4</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" ht="20.25" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
@@ -1024,6 +1294,17 @@
           <t>piping rock ashwagandha 3000mg 120caps</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" ht="20.25" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
@@ -1031,6 +1312,17 @@
           <t>premium health c-1000 50caps</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" ht="20.25" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
@@ -1038,6 +1330,17 @@
           <t>piping rock probiotic 20 mg 90caps</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" ht="20.25" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
@@ -1045,6 +1348,17 @@
           <t>piping rock DGL 120caps</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" ht="20.25" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
@@ -1052,6 +1366,17 @@
           <t>neta normakos 100 mg drops</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" ht="20.25" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
@@ -1059,6 +1384,17 @@
           <t>piping rock boswellia complex 800 mg 100caps</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" ht="20.25" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
@@ -1066,6 +1402,17 @@
           <t>piping rock boswellia complex 1200 mg 120caps</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>01/11/2023</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" ht="20.25" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
@@ -1073,6 +1420,17 @@
           <t>piping rock bromelain 850 mg 120caps</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>01/11/2023</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" ht="20.25" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
@@ -1080,6 +1438,17 @@
           <t>piping rock primrose oil 1000mg 100caps</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>01/05/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" ht="20.25" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
@@ -1087,6 +1456,17 @@
           <t>hylands rhus tox 30x 250tabs</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" ht="20.25" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
@@ -1094,6 +1474,17 @@
           <t>puritan's pride prostene 60caps</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" ht="20.25" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
@@ -1101,6 +1492,17 @@
           <t>lindberg vitamin d3 5000 125mc 120caps</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" ht="20.25" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
@@ -1108,6 +1510,17 @@
           <t>supherb vitamin d 400 drops</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>01/05/2023</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" ht="20.25" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
@@ -1115,6 +1528,17 @@
           <t>supherb vitamin d 400 120caps</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>01/12/2023</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" ht="20.25" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
@@ -1122,6 +1546,17 @@
           <t>piping rock vitamin d3 5000 125mc 100caps</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" ht="20.25" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
@@ -1129,6 +1564,17 @@
           <t>piping rock vitamin d3 5000 125mc high potency 250cap</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>13</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" ht="20.25" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
@@ -1136,6 +1582,17 @@
           <t>piping rock vitamin d3 5000 125mc 250cap</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" ht="20.25" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
@@ -1143,6 +1600,17 @@
           <t>puritan's pride glucosamine chondroitin msm 60cap</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>01/12/2018</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" ht="20.25" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
@@ -1150,6 +1618,17 @@
           <t>lindberg phosphatidyl serine 100mg 120caps</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" ht="20.25" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
@@ -1157,6 +1636,17 @@
           <t>piping rock neurogolg 100mg 120caps</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" ht="20.25" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
@@ -1164,6 +1654,17 @@
           <t>piping rock pqq 20mg 60caps</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" ht="20.25" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
@@ -1171,6 +1672,17 @@
           <t>horbaach korean ginseng 59mg drops</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" ht="20.25" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
@@ -1178,6 +1690,17 @@
           <t>piping rock licorice root liquid extract drops</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>4</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" ht="20.25" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
@@ -1185,6 +1708,17 @@
           <t>piping rock ginger root liquid extract drops</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" ht="20.25" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
@@ -1192,6 +1726,17 @@
           <t>piping rock saffron extract 60caps</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72" ht="20.25" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
@@ -1199,6 +1744,17 @@
           <t>puritan's pride ginko biloba 120 mg 100caps</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>01/12/2021</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73" ht="20.25" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
@@ -1206,6 +1762,17 @@
           <t>hylands calms forth 100tabs</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>01/12/2021</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" ht="20.25" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
@@ -1213,6 +1780,17 @@
           <t>piping rock calms caps 180caps</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>01/12/2023</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" ht="20.25" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
@@ -1220,6 +1798,17 @@
           <t>natures way choline 500mg 100taps</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>01/12/2022</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" ht="20.25" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
@@ -1227,6 +1816,17 @@
           <t>shirat haasavim achinizea 50ml drops</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" ht="20.25" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
@@ -1234,6 +1834,17 @@
           <t>piping rock energy booster 90cap</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>01/12/2022</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" ht="20.25" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
@@ -1241,6 +1852,17 @@
           <t>herbal hills triphala 60cap</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" ht="20.25" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
@@ -1248,6 +1870,17 @@
           <t>lindberg saw palmetto 900ml 100caps</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>4</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" ht="20.25" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
@@ -1255,6 +1888,17 @@
           <t>piping rock chlorophyll liquid  473ml</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>01/08/2023</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" ht="20.25" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
@@ -1262,6 +1906,17 @@
           <t>piping rock fenugreek 1220mg 100cap</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" ht="20.25" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
@@ -1269,6 +1924,17 @@
           <t>lindberg fish oil 1360mg 180quick</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" ht="20.25" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
@@ -1276,6 +1942,17 @@
           <t>piping rock e400iu 268mg 100softgel</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>01/09/2025</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>4</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="84" ht="20.25" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
@@ -1283,6 +1960,17 @@
           <t>natures way sarsaparilla 100cap</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="85" ht="20.25" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
@@ -1290,6 +1978,17 @@
           <t>puritan's pride mushroom complex 60cap</t>
         </is>
       </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>05/02/2021</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" ht="20.25" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
@@ -1297,6 +1996,17 @@
           <t>piping rock 6 mushroom 60cap</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" ht="20.25" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
@@ -1304,6 +2014,17 @@
           <t>natures truth b-12 energy gummies 48cap</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>01/12/2022</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" ht="20.25" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
@@ -1311,6 +2032,17 @@
           <t>piping rock b-12 2500 mcg + filic acid 120tab</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>01/11/2023</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" ht="20.25" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
@@ -1318,6 +2050,17 @@
           <t>piping rock b-12 methylcobalamin 500 mcg 60tab</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>01/08/2023</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" ht="20.25" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
@@ -1325,6 +2068,17 @@
           <t>piping rock b complex + b12  59ml</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>01/06/2023</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" ht="20.25" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
@@ -1332,6 +2086,17 @@
           <t>piping rock b12 10000 mcg 59ml</t>
         </is>
       </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" ht="20.25" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
@@ -1339,6 +2104,17 @@
           <t>piping rock b complex + b12  180tab</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>4</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="93" ht="20.25" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
@@ -1346,6 +2122,17 @@
           <t>piping rock b complex + c 100tabs</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" ht="20.25" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
@@ -1353,6 +2140,17 @@
           <t>hylands nerve tonic  500tab</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" ht="20.25" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
@@ -1360,6 +2158,17 @@
           <t>piping rock mega multi for women 90caps</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" ht="20.25" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
@@ -1367,6 +2176,17 @@
           <t>piping rock retinol cream 113gr</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97" ht="20.25" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
@@ -1374,6 +2194,17 @@
           <t>piping rock vitamin e,a , d cream 113gr</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" ht="20.25" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
@@ -1381,6 +2212,17 @@
           <t>piping rock cocunut cream 113gr</t>
         </is>
       </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" ht="20.25" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
@@ -1388,6 +2230,17 @@
           <t>piping rock vitamin e cream 113gr</t>
         </is>
       </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" ht="20.25" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
@@ -1395,6 +2248,17 @@
           <t>piping rock papaya supreme 180tab</t>
         </is>
       </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101" ht="20.25" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
@@ -1402,6 +2266,17 @@
           <t>piping rock max biotin 10000mcg 90tab</t>
         </is>
       </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>01/06/2022</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" ht="20.25" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
@@ -1409,6 +2284,17 @@
           <t>piping rock urinary track 60tab</t>
         </is>
       </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>4</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" ht="20.25" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
@@ -1416,6 +2302,17 @@
           <t>miracle of  aloe miracle foot repair cream 113gr</t>
         </is>
       </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" ht="20.25" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
@@ -1423,6 +2320,17 @@
           <t>natures truth immune complex 60tab</t>
         </is>
       </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>3</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="105" ht="20.25" customHeight="1">
       <c r="A105" s="2" t="inlineStr">
@@ -1430,6 +2338,17 @@
           <t>piping rock oil of oregano 3000 mg 150tabs</t>
         </is>
       </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>01/05/2023</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>11</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="106" ht="20.25" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
@@ -1437,6 +2356,17 @@
           <t>piping rock oil of oregano drops 59ml</t>
         </is>
       </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="107" ht="20.25" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
@@ -1444,6 +2374,17 @@
           <t>piping rock gaba 750 mg 100caps</t>
         </is>
       </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" ht="20.25" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
@@ -1451,6 +2392,17 @@
           <t>puritan's pride st. johns worth 300 mg 100caps</t>
         </is>
       </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>03/02/2021</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" ht="20.25" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
@@ -1458,6 +2410,17 @@
           <t>piping rock lutein 40 mg 90caps</t>
         </is>
       </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>01/06/2023</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110" ht="20.25" customHeight="1">
       <c r="A110" s="2" t="inlineStr">
@@ -1465,6 +2428,17 @@
           <t>hylands leg cramp 100tabs</t>
         </is>
       </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" ht="20.25" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
@@ -1472,6 +2446,17 @@
           <t>piping rock folic acid 800 mg 250tabs</t>
         </is>
       </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>01/05/2022</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" ht="20.25" customHeight="1">
       <c r="A112" s="2" t="inlineStr">
@@ -1479,6 +2464,17 @@
           <t>piping rock probiotic acidophilus 1.5 mg 240caps</t>
         </is>
       </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" ht="20.25" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
@@ -1486,6 +2482,17 @@
           <t>piping rock stress support gummies 48tabs</t>
         </is>
       </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>01/12/2022</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" ht="20.25" customHeight="1">
       <c r="A114" s="2" t="inlineStr">
@@ -1493,6 +2500,17 @@
           <t>piping rock iron gummies 60tabs</t>
         </is>
       </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115" ht="20.25" customHeight="1">
       <c r="A115" s="2" t="inlineStr">
@@ -1500,6 +2518,17 @@
           <t>puritan's pride aloe vera 470mg 100cap</t>
         </is>
       </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>04/02/2021</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" ht="20.25" customHeight="1">
       <c r="A116" s="2" t="inlineStr">
@@ -1507,6 +2536,17 @@
           <t>piping rock vitex chaste tree 820mg 100cap</t>
         </is>
       </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>01/06/2023</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" ht="20.25" customHeight="1">
       <c r="A117" s="2" t="inlineStr">
@@ -1514,6 +2554,17 @@
           <t>supherb cranberry and vitamin c 60cap</t>
         </is>
       </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="118" ht="20.25" customHeight="1">
       <c r="A118" s="2" t="inlineStr">
@@ -1521,6 +2572,17 @@
           <t>piping rock testosterone max 90cap</t>
         </is>
       </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>3</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="119" ht="20.25" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
@@ -1528,6 +2590,17 @@
           <t>piping rock mega t 1000 100cap</t>
         </is>
       </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" ht="20.25" customHeight="1">
       <c r="A120" s="2" t="inlineStr">
@@ -1535,6 +2608,17 @@
           <t>piping rock dhea 25 mg 180mg</t>
         </is>
       </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>01/11/2023</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="121" ht="20.25" customHeight="1">
       <c r="A121" s="2" t="inlineStr">
@@ -1542,6 +2626,17 @@
           <t>tinc affron 30mg 30caps</t>
         </is>
       </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>3</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122" ht="20.25" customHeight="1">
       <c r="A122" s="2" t="inlineStr">
@@ -1549,6 +2644,17 @@
           <t>piping rock turmeric 800mg 180cap</t>
         </is>
       </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>01/12/2023</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="123" ht="20.25" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
@@ -1556,6 +2662,17 @@
           <t>supherb vitaminc 1000 90cap</t>
         </is>
       </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="124" ht="20.25" customHeight="1">
       <c r="A124" s="2" t="inlineStr">
@@ -1563,6 +2680,17 @@
           <t>supherb omega3 kosher 90cap</t>
         </is>
       </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>9</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="125" ht="20.25" customHeight="1">
       <c r="A125" s="2" t="inlineStr">
@@ -1570,6 +2698,17 @@
           <t>puritan's pride oat bran 850mg 250tabs</t>
         </is>
       </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>01/08/2017</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" ht="20.25" customHeight="1">
       <c r="A126" s="2" t="inlineStr">
@@ -1577,6 +2716,17 @@
           <t>maxi health maxi health supreme  360tab</t>
         </is>
       </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" ht="20.25" customHeight="1">
       <c r="A127" s="2" t="inlineStr">
@@ -1584,6 +2734,17 @@
           <t>source naturals beta sitosterol 113 mg 90tab</t>
         </is>
       </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="128" ht="20.25" customHeight="1">
       <c r="A128" s="2" t="inlineStr">
@@ -1591,6 +2752,17 @@
           <t>shopko one daily 65caps</t>
         </is>
       </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>01/05/2021</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="129" ht="20.25" customHeight="1">
       <c r="A129" s="2" t="inlineStr">
@@ -1598,12 +2770,106 @@
           <t>puritan's pride c-500 100caps</t>
         </is>
       </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="130" ht="20.25" customHeight="1">
       <c r="A130" s="2" t="inlineStr">
         <is>
           <t>piping rock collagen pedrides 198gr</t>
         </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>01/05/2022</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>2</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>lindberg msm 1,000 mg 180caps</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>01/12/2023</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>4</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>piping rock e 1000 iu 100caps</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>01/05/2025</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>nature's truth turmeric curcumin+ginger gummis 70caps</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>100caps</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>4</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
